--- a/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F02B6E2C-6C27-4453-8926-DCF6C9EB9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D506FB40-0098-4509-9F64-52721D50B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{64103461-D552-4420-A087-5D00CFEEDB17}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9B12E2-12F6-4F9B-8DC4-847133246F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2007 (Tasa respuesta: 99,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>74,34%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1756 +140,1720 @@
     <t>19,42%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>80,02%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>15,51%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,49%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AA1073-F6B8-4804-B8BB-3581A2171530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4108DC72-3412-4D9B-AFD0-A8FC51C29F0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3221,7 +3185,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -3230,13 +3194,13 @@
         <v>89759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3215,13 @@
         <v>237791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -3266,13 +3230,13 @@
         <v>221405</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>450</v>
@@ -3281,13 +3245,13 @@
         <v>459196</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,7 +3307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3355,13 +3319,13 @@
         <v>46275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -3370,13 +3334,13 @@
         <v>77638</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -3385,13 +3349,13 @@
         <v>123913</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3370,13 @@
         <v>568752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -3421,13 +3385,13 @@
         <v>559601</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1095</v>
@@ -3436,13 +3400,13 @@
         <v>1128353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,7 +3462,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3510,13 +3474,13 @@
         <v>109204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -3525,13 +3489,13 @@
         <v>132005</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -3540,13 +3504,13 @@
         <v>241209</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3525,13 @@
         <v>632197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3698,10 +3662,10 @@
         <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,10 +3713,10 @@
         <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0433F8-C2BA-4C28-B784-FD2F5AF0843D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A573141-6058-483C-9597-5CDB06948CDE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4266,10 +4230,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4278,13 +4242,13 @@
         <v>72907</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4263,13 @@
         <v>290440</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -4314,13 +4278,13 @@
         <v>297527</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -4329,13 +4293,13 @@
         <v>587967</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4367,13 @@
         <v>97800</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4418,13 +4382,13 @@
         <v>146752</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -4433,13 +4397,13 @@
         <v>244552</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4418,13 @@
         <v>555558</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -4469,13 +4433,13 @@
         <v>517580</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1001</v>
@@ -4484,13 +4448,13 @@
         <v>1073139</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4522,13 @@
         <v>27987</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4573,13 +4537,13 @@
         <v>46073</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4588,13 +4552,13 @@
         <v>74060</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4573,13 @@
         <v>183616</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -4624,13 +4588,13 @@
         <v>172625</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
@@ -4639,10 +4603,10 @@
         <v>356242</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>248</v>
@@ -4856,7 +4820,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4832,13 @@
         <v>91811</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -4883,13 +4847,13 @@
         <v>89547</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -4898,13 +4862,13 @@
         <v>181359</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4883,13 @@
         <v>562115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>548</v>
@@ -4934,13 +4898,13 @@
         <v>592389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4949,13 +4913,13 @@
         <v>1154504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,7 +4975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +4987,13 @@
         <v>165325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -5038,13 +5002,13 @@
         <v>154891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>289</v>
@@ -5053,13 +5017,13 @@
         <v>320216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5038,13 @@
         <v>607783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -5089,13 +5053,13 @@
         <v>665719</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1176</v>
@@ -5104,13 +5068,13 @@
         <v>1273502</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5142,13 @@
         <v>549405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>566</v>
@@ -5193,13 +5157,13 @@
         <v>620610</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M28" s="7">
         <v>1071</v>
@@ -5208,13 +5172,13 @@
         <v>1170015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5193,13 @@
         <v>2836947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2701</v>
@@ -5244,13 +5208,13 @@
         <v>2902294</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5365</v>
@@ -5259,13 +5223,13 @@
         <v>5739240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062EF9D6-153E-4B8C-B673-F36A7EA4BAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD07958-2B0F-40A8-A09D-E0D5A7C3C9E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5469,13 +5433,13 @@
         <v>51778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -5484,13 +5448,13 @@
         <v>61479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>106</v>
@@ -5499,13 +5463,13 @@
         <v>113257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5484,13 @@
         <v>234098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -5535,13 +5499,13 @@
         <v>219900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -5550,13 +5514,13 @@
         <v>453998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5588,13 @@
         <v>79197</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5639,13 +5603,13 @@
         <v>87387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -5654,13 +5618,13 @@
         <v>166584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5639,13 @@
         <v>418176</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>401</v>
@@ -5690,13 +5654,13 @@
         <v>430272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -5705,13 +5669,13 @@
         <v>848447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5743,13 @@
         <v>63471</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -5794,13 +5758,13 @@
         <v>69790</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -5809,13 +5773,13 @@
         <v>133261</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5794,13 @@
         <v>253188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>263</v>
@@ -5845,13 +5809,13 @@
         <v>263076</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>526</v>
@@ -5952,10 +5916,10 @@
         <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -5964,13 +5928,13 @@
         <v>84693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,7 +5946,7 @@
         <v>317</v>
       </c>
       <c r="D14" s="7">
-        <v>329895</v>
+        <v>329894</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>376</v>
@@ -6006,7 +5970,7 @@
         <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>631</v>
@@ -6015,10 +5979,10 @@
         <v>667544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>383</v>
@@ -6033,7 +5997,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367940</v>
+        <v>367939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6095,7 +6059,7 @@
         <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6104,13 +6068,13 @@
         <v>23362</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -6119,13 +6083,13 @@
         <v>50190</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6104,13 @@
         <v>183326</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -6155,13 +6119,13 @@
         <v>195225</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -6170,13 +6134,13 @@
         <v>378552</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6208,13 @@
         <v>45734</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -6259,13 +6223,13 @@
         <v>72789</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -6274,13 +6238,13 @@
         <v>118523</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6259,13 @@
         <v>217389</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6310,13 +6274,13 @@
         <v>198387</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
@@ -6325,13 +6289,13 @@
         <v>415776</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6363,13 @@
         <v>141879</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -6414,13 +6378,13 @@
         <v>153009</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -6429,13 +6393,13 @@
         <v>294888</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6414,13 @@
         <v>510051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -6465,13 +6429,13 @@
         <v>526987</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
@@ -6480,13 +6444,13 @@
         <v>1037038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6506,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6518,13 @@
         <v>106629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6569,13 +6533,13 @@
         <v>122213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -6584,13 +6548,13 @@
         <v>228842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6569,13 @@
         <v>668307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>644</v>
@@ -6620,13 +6584,13 @@
         <v>700591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1286</v>
@@ -6635,13 +6599,13 @@
         <v>1368898</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6673,13 @@
         <v>553561</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>581</v>
@@ -6724,13 +6688,13 @@
         <v>636678</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1109</v>
@@ -6739,13 +6703,13 @@
         <v>1190238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6724,13 @@
         <v>2814431</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2724</v>
@@ -6775,13 +6739,13 @@
         <v>2872086</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>5404</v>
@@ -6790,13 +6754,13 @@
         <v>5686518</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D611CA-052C-4567-881D-07FB91FDBFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8C26CA-E91E-4050-8A76-0B7D79DAD6C5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +6964,13 @@
         <v>9479</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -7015,13 +6979,13 @@
         <v>13312</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -7030,13 +6994,13 @@
         <v>22791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7015,13 @@
         <v>246688</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>504</v>
@@ -7066,13 +7030,13 @@
         <v>254907</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>814</v>
@@ -7081,13 +7045,13 @@
         <v>501595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7119,13 @@
         <v>61201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -7170,13 +7134,13 @@
         <v>65377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -7185,13 +7149,13 @@
         <v>126578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7170,13 @@
         <v>453519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>622</v>
@@ -7221,13 +7185,13 @@
         <v>485842</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>948</v>
@@ -7236,10 +7200,10 @@
         <v>939361</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>504</v>
@@ -7310,13 +7274,13 @@
         <v>29083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>387</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7325,13 +7289,13 @@
         <v>41635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -7340,13 +7304,13 @@
         <v>70718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7325,13 @@
         <v>272899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -7376,13 +7340,13 @@
         <v>296443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>710</v>
@@ -7391,13 +7355,13 @@
         <v>569342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7429,13 @@
         <v>30505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -7480,13 +7444,13 @@
         <v>43618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -7495,13 +7459,13 @@
         <v>74123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7480,13 @@
         <v>287391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>504</v>
@@ -7531,13 +7495,13 @@
         <v>372530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M14" s="7">
         <v>756</v>
@@ -7546,13 +7510,13 @@
         <v>659921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7584,13 @@
         <v>25596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -7635,13 +7599,13 @@
         <v>27039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -7650,13 +7614,13 @@
         <v>52635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7635,13 @@
         <v>170396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
         <v>427</v>
@@ -7686,13 +7650,13 @@
         <v>204457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>664</v>
@@ -7701,13 +7665,13 @@
         <v>374853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>448</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7739,13 @@
         <v>36553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>553</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -7790,13 +7754,13 @@
         <v>38005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>544</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -7805,13 +7769,13 @@
         <v>74558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7790,13 @@
         <v>239637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>374</v>
@@ -7841,13 +7805,13 @@
         <v>237190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -7856,13 +7820,13 @@
         <v>476827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7882,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7894,13 @@
         <v>70111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -7945,13 +7909,13 @@
         <v>74203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>570</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -7960,13 +7924,13 @@
         <v>144314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7945,13 @@
         <v>546300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H23" s="7">
         <v>834</v>
@@ -7996,13 +7960,13 @@
         <v>604919</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>579</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>1344</v>
@@ -8011,13 +7975,13 @@
         <v>1151220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8085,13 +8049,13 @@
         <v>172326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H25" s="7">
         <v>306</v>
@@ -8100,13 +8064,13 @@
         <v>220717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>17</v>
       </c>
       <c r="M25" s="7">
         <v>489</v>
@@ -8115,13 +8079,13 @@
         <v>393044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8100,13 @@
         <v>682876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -8151,13 +8115,13 @@
         <v>645024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>596</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>1328</v>
@@ -8166,13 +8130,13 @@
         <v>1327899</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8204,13 @@
         <v>434854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>824</v>
@@ -8255,13 +8219,13 @@
         <v>523907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="M28" s="7">
         <v>1328</v>
@@ -8270,13 +8234,13 @@
         <v>958761</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8255,13 @@
         <v>2899706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="H29" s="7">
         <v>4430</v>
@@ -8306,13 +8270,13 @@
         <v>3101311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="M29" s="7">
         <v>7246</v>
@@ -8321,13 +8285,13 @@
         <v>6001017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D506FB40-0098-4509-9F64-52721D50B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0BD6EA-987A-451D-944E-A03C016F60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9B12E2-12F6-4F9B-8DC4-847133246F8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65EC30AE-81DF-4E90-BF7C-C638780C7F53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,66%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>74,34%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>69,06%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1530 +140,1536 @@
     <t>19,42%</t>
   </si>
   <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
     <t>84,8%</t>
   </si>
   <si>
@@ -1817,12 +1823,6 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
     <t>12,95%</t>
   </si>
   <si>
@@ -1841,13 +1841,7 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,4%</t>
-  </si>
-  <si>
     <t>86,52%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
   </si>
   <si>
     <t>85,44%</t>
@@ -2265,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4108DC72-3412-4D9B-AFD0-A8FC51C29F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4A9D54-8753-44DF-8641-7F04FD6B2358}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3015,7 +3009,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3024,13 +3018,13 @@
         <v>43754</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3039,13 +3033,13 @@
         <v>80466</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3054,13 @@
         <v>166596</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -3075,13 +3069,13 @@
         <v>162919</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>326</v>
@@ -3090,13 +3084,13 @@
         <v>329515</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3146,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3164,13 +3158,13 @@
         <v>33020</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3179,13 +3173,13 @@
         <v>56739</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -3194,13 +3188,13 @@
         <v>89759</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3209,13 @@
         <v>237791</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
@@ -3230,13 +3224,13 @@
         <v>221405</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>450</v>
@@ -3245,13 +3239,13 @@
         <v>459196</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3301,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3319,13 +3313,13 @@
         <v>46275</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>74</v>
@@ -3334,13 +3328,13 @@
         <v>77638</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -3349,13 +3343,13 @@
         <v>123913</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3364,13 @@
         <v>568752</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>546</v>
@@ -3385,13 +3379,13 @@
         <v>559601</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1095</v>
@@ -3400,13 +3394,13 @@
         <v>1128353</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3456,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3468,13 @@
         <v>109204</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -3489,13 +3483,13 @@
         <v>132005</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -3504,13 +3498,13 @@
         <v>241209</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3519,13 @@
         <v>632197</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>622</v>
@@ -3635,7 +3629,7 @@
         <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="H28" s="7">
         <v>607</v>
@@ -3644,13 +3638,13 @@
         <v>641005</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1070</v>
@@ -3659,10 +3653,10 @@
         <v>1112939</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>169</v>
@@ -3683,10 +3677,10 @@
         <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>2687</v>
@@ -3695,13 +3689,13 @@
         <v>2735067</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>5433</v>
@@ -3710,13 +3704,13 @@
         <v>5533609</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A573141-6058-483C-9597-5CDB06948CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76023DC-66BB-4CA6-81E4-0C6375D163C5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4057,7 +4051,7 @@
         <v>98672</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>181</v>
@@ -4108,7 +4102,7 @@
         <v>403881</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>189</v>
@@ -4230,10 +4224,10 @@
         <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -4242,13 +4236,13 @@
         <v>72907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4257,13 @@
         <v>290440</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -4278,13 +4272,13 @@
         <v>297527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -4293,13 +4287,13 @@
         <v>587967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4361,13 @@
         <v>97800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4382,13 +4376,13 @@
         <v>146752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -4397,13 +4391,13 @@
         <v>244552</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4412,13 @@
         <v>555558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -4433,13 +4427,13 @@
         <v>517580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1001</v>
@@ -4448,13 +4442,13 @@
         <v>1073139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4516,13 @@
         <v>27987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4537,13 +4531,13 @@
         <v>46073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -4552,13 +4546,13 @@
         <v>74060</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4567,13 @@
         <v>183616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -4588,13 +4582,13 @@
         <v>172625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
@@ -4603,13 +4597,13 @@
         <v>356242</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4659,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4677,13 +4671,13 @@
         <v>35231</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4692,13 +4686,13 @@
         <v>43092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -4707,13 +4701,13 @@
         <v>78322</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4722,13 @@
         <v>233552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>226</v>
@@ -4743,13 +4737,13 @@
         <v>233810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>449</v>
@@ -4758,13 +4752,13 @@
         <v>467363</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4826,13 @@
         <v>91811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -4847,13 +4841,13 @@
         <v>89547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>161</v>
@@ -4862,13 +4856,13 @@
         <v>181359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4877,13 @@
         <v>562115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>548</v>
@@ -4898,13 +4892,13 @@
         <v>592389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1074</v>
@@ -4913,13 +4907,13 @@
         <v>1154504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4969,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4987,13 +4981,13 @@
         <v>165325</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>140</v>
@@ -5002,13 +4996,13 @@
         <v>154891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>289</v>
@@ -5017,13 +5011,13 @@
         <v>320216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5032,13 @@
         <v>607783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>614</v>
@@ -5053,28 +5047,28 @@
         <v>665719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1176</v>
       </c>
       <c r="N26" s="7">
-        <v>1273502</v>
+        <v>1273503</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5110,7 @@
         <v>1465</v>
       </c>
       <c r="N27" s="7">
-        <v>1593718</v>
+        <v>1593719</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5142,13 +5136,13 @@
         <v>549405</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>566</v>
@@ -5157,13 +5151,13 @@
         <v>620610</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>1071</v>
@@ -5172,13 +5166,13 @@
         <v>1170015</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5187,13 @@
         <v>2836947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2701</v>
@@ -5208,28 +5202,28 @@
         <v>2902294</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5365</v>
       </c>
       <c r="N29" s="7">
-        <v>5739240</v>
+        <v>5739239</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,7 +5265,7 @@
         <v>6436</v>
       </c>
       <c r="N30" s="7">
-        <v>6909255</v>
+        <v>6909254</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5309,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD07958-2B0F-40A8-A09D-E0D5A7C3C9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138B0C98-856B-4D2C-A1D3-218CEF059C68}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5427,13 @@
         <v>51778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -5448,13 +5442,13 @@
         <v>61479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>106</v>
@@ -5463,13 +5457,13 @@
         <v>113257</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5478,13 @@
         <v>234098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -5499,13 +5493,13 @@
         <v>219900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -5514,13 +5508,13 @@
         <v>453998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5582,13 @@
         <v>79197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5603,13 +5597,13 @@
         <v>87387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>155</v>
@@ -5618,13 +5612,13 @@
         <v>166584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5633,13 @@
         <v>418176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>401</v>
@@ -5654,13 +5648,13 @@
         <v>430272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>794</v>
@@ -5669,10 +5663,10 @@
         <v>848447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>349</v>
@@ -5928,13 +5922,13 @@
         <v>84693</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,10 +5973,10 @@
         <v>667544</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>383</v>
@@ -6059,7 +6053,7 @@
         <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6068,13 +6062,13 @@
         <v>23362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -6083,13 +6077,13 @@
         <v>50190</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6098,13 @@
         <v>183326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -6119,13 +6113,13 @@
         <v>195225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -6134,13 +6128,13 @@
         <v>378552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6190,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6202,13 @@
         <v>45734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -6223,13 +6217,13 @@
         <v>72789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -6238,13 +6232,13 @@
         <v>118523</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6253,13 @@
         <v>217389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>194</v>
@@ -6274,13 +6268,13 @@
         <v>198387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>408</v>
@@ -6289,13 +6283,13 @@
         <v>415776</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6363,13 +6357,13 @@
         <v>141879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>139</v>
@@ -6378,13 +6372,13 @@
         <v>153009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -6393,13 +6387,13 @@
         <v>294888</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6408,13 @@
         <v>510051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>497</v>
@@ -6429,13 +6423,13 @@
         <v>526987</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
@@ -6444,13 +6438,13 @@
         <v>1037038</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6500,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6518,13 +6512,13 @@
         <v>106629</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6533,13 +6527,13 @@
         <v>122213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>213</v>
@@ -6548,13 +6542,13 @@
         <v>228842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6563,13 @@
         <v>668307</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>644</v>
@@ -6584,13 +6578,13 @@
         <v>700591</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1286</v>
@@ -6599,13 +6593,13 @@
         <v>1368898</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6667,13 @@
         <v>553561</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>581</v>
@@ -6688,13 +6682,13 @@
         <v>636678</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1109</v>
@@ -6703,13 +6697,13 @@
         <v>1190238</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6718,13 @@
         <v>2814431</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2724</v>
@@ -6739,13 +6733,13 @@
         <v>2872086</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>5404</v>
@@ -6754,13 +6748,13 @@
         <v>5686518</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8C26CA-E91E-4050-8A76-0B7D79DAD6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7CB4A-FCDE-40BD-A86D-BA68FF4926AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6964,13 +6958,13 @@
         <v>9479</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6979,13 +6973,13 @@
         <v>13312</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -6994,13 +6988,13 @@
         <v>22791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7009,13 @@
         <v>246688</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>504</v>
@@ -7030,13 +7024,13 @@
         <v>254907</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>814</v>
@@ -7045,13 +7039,13 @@
         <v>501595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7113,13 @@
         <v>61201</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -7134,13 +7128,13 @@
         <v>65377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -7149,13 +7143,13 @@
         <v>126578</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7164,13 @@
         <v>453519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>622</v>
@@ -7185,13 +7179,13 @@
         <v>485842</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>948</v>
@@ -7200,13 +7194,13 @@
         <v>939361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7268,13 @@
         <v>29083</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7289,13 +7283,13 @@
         <v>41635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -7304,13 +7298,13 @@
         <v>70718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7319,13 @@
         <v>272899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -7340,13 +7334,13 @@
         <v>296443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>710</v>
@@ -7355,13 +7349,13 @@
         <v>569342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7423,13 @@
         <v>30505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -7444,13 +7438,13 @@
         <v>43618</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -7459,13 +7453,13 @@
         <v>74123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7474,13 @@
         <v>287391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>504</v>
@@ -7495,13 +7489,13 @@
         <v>372530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>756</v>
@@ -7510,13 +7504,13 @@
         <v>659921</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7578,13 @@
         <v>25596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -7599,13 +7593,13 @@
         <v>27039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>531</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -7614,13 +7608,13 @@
         <v>52635</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>534</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7629,13 @@
         <v>170396</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>427</v>
@@ -7650,13 +7644,13 @@
         <v>204457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>664</v>
@@ -7665,13 +7659,13 @@
         <v>374853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,7 +7721,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7739,13 +7733,13 @@
         <v>36553</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -7754,13 +7748,13 @@
         <v>38005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -7769,13 +7763,13 @@
         <v>74558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7784,13 @@
         <v>239637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H20" s="7">
         <v>374</v>
@@ -7805,13 +7799,13 @@
         <v>237190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M20" s="7">
         <v>682</v>
@@ -7820,13 +7814,13 @@
         <v>476827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7876,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7894,13 +7888,13 @@
         <v>70111</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -7909,13 +7903,13 @@
         <v>74203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -7924,13 +7918,13 @@
         <v>144314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7939,13 @@
         <v>546300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H23" s="7">
         <v>834</v>
@@ -7960,13 +7954,13 @@
         <v>604919</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1344</v>
@@ -7975,13 +7969,13 @@
         <v>1151220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,7 +8031,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8049,13 +8043,13 @@
         <v>172326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>306</v>
@@ -8064,10 +8058,10 @@
         <v>220717</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -8079,13 +8073,13 @@
         <v>393044</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8094,13 @@
         <v>682876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -8115,13 +8109,13 @@
         <v>645024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>1328</v>
@@ -8130,13 +8124,13 @@
         <v>1327899</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,13 +8198,13 @@
         <v>434854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>824</v>
@@ -8219,13 +8213,13 @@
         <v>523907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>592</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>1328</v>
@@ -8234,7 +8228,7 @@
         <v>958761</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>593</v>
+        <v>375</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>594</v>
@@ -8273,10 +8267,10 @@
         <v>599</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M29" s="7">
         <v>7246</v>
@@ -8285,13 +8279,13 @@
         <v>6001017</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0BD6EA-987A-451D-944E-A03C016F60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DF3DD7-B071-447B-9EF1-947D0105156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65EC30AE-81DF-4E90-BF7C-C638780C7F53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E4EB19-A304-45AC-9B52-4AA48644CC3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -74,1780 +74,1888 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>36,89%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>16,49%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4A9D54-8753-44DF-8641-7F04FD6B2358}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBB00A-5C49-4D2F-B88B-DE3D738BC99B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2377,10 +2485,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D4" s="7">
-        <v>69840</v>
+        <v>222160</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2392,10 +2500,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="I4" s="7">
-        <v>80691</v>
+        <v>237442</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2407,10 +2515,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="N4" s="7">
-        <v>150531</v>
+        <v>459602</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2428,10 +2536,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>202333</v>
+        <v>50013</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2443,10 +2551,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>180147</v>
+        <v>23396</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2458,10 +2566,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>382480</v>
+        <v>73409</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2532,10 +2640,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="D7" s="7">
-        <v>95193</v>
+        <v>307842</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2547,10 +2655,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="I7" s="7">
-        <v>146415</v>
+        <v>350153</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2562,10 +2670,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>236</v>
+        <v>638</v>
       </c>
       <c r="N7" s="7">
-        <v>241608</v>
+        <v>657995</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2583,10 +2691,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>395046</v>
+        <v>182397</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2598,10 +2706,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>357534</v>
+        <v>153796</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2613,10 +2721,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>726</v>
+        <v>324</v>
       </c>
       <c r="N8" s="7">
-        <v>752580</v>
+        <v>336193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2687,10 +2795,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="D10" s="7">
-        <v>25940</v>
+        <v>204739</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2702,10 +2810,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="I10" s="7">
-        <v>38384</v>
+        <v>195801</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2717,10 +2825,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="N10" s="7">
-        <v>64324</v>
+        <v>400540</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2738,10 +2846,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>292906</v>
+        <v>114107</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2753,10 +2861,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="I11" s="7">
-        <v>297028</v>
+        <v>139611</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2768,10 +2876,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>581</v>
+        <v>251</v>
       </c>
       <c r="N11" s="7">
-        <v>589934</v>
+        <v>253718</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2842,10 +2950,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="D13" s="7">
-        <v>55750</v>
+        <v>259978</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2857,10 +2965,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="I13" s="7">
-        <v>65381</v>
+        <v>264646</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2872,10 +2980,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>536</v>
       </c>
       <c r="N13" s="7">
-        <v>121130</v>
+        <v>524624</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2893,10 +3001,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="D14" s="7">
-        <v>302921</v>
+        <v>98693</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2908,10 +3016,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="I14" s="7">
-        <v>306075</v>
+        <v>106810</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2923,10 +3031,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>624</v>
+        <v>210</v>
       </c>
       <c r="N14" s="7">
-        <v>608997</v>
+        <v>205503</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2997,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>36712</v>
+        <v>164866</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -3009,37 +3117,37 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="I16" s="7">
-        <v>43754</v>
+        <v>178888</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="N16" s="7">
-        <v>80466</v>
+        <v>343754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,49 +3156,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>166596</v>
+        <v>38442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>162919</v>
+        <v>27785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="N17" s="7">
-        <v>329515</v>
+        <v>66227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,55 +3254,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="D19" s="7">
-        <v>33020</v>
+        <v>193853</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="I19" s="7">
-        <v>56739</v>
+        <v>204735</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>86</v>
+        <v>391</v>
       </c>
       <c r="N19" s="7">
-        <v>89759</v>
+        <v>398589</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3311,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7">
-        <v>237791</v>
+        <v>76958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="I20" s="7">
-        <v>221405</v>
+        <v>73409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>450</v>
+        <v>145</v>
       </c>
       <c r="N20" s="7">
-        <v>459196</v>
+        <v>150366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,55 +3409,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>49</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
-        <v>46275</v>
+        <v>332189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="I22" s="7">
-        <v>77638</v>
+        <v>318018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>123</v>
+        <v>632</v>
       </c>
       <c r="N22" s="7">
-        <v>123913</v>
+        <v>650206</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3466,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>549</v>
+        <v>273</v>
       </c>
       <c r="D23" s="7">
-        <v>568752</v>
+        <v>282838</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>546</v>
+        <v>313</v>
       </c>
       <c r="I23" s="7">
-        <v>559601</v>
+        <v>319221</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1095</v>
+        <v>586</v>
       </c>
       <c r="N23" s="7">
-        <v>1128353</v>
+        <v>602060</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,55 +3564,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>105</v>
+        <v>608</v>
       </c>
       <c r="D25" s="7">
-        <v>109204</v>
+        <v>617733</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>122</v>
+        <v>654</v>
       </c>
       <c r="I25" s="7">
-        <v>132005</v>
+        <v>690983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>227</v>
+        <v>1262</v>
       </c>
       <c r="N25" s="7">
-        <v>241209</v>
+        <v>1308716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,49 +3621,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>629</v>
+        <v>126</v>
       </c>
       <c r="D26" s="7">
-        <v>632197</v>
+        <v>123668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>622</v>
+        <v>90</v>
       </c>
       <c r="I26" s="7">
-        <v>650355</v>
+        <v>91377</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>1251</v>
+        <v>216</v>
       </c>
       <c r="N26" s="7">
-        <v>1282552</v>
+        <v>215045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,49 +3725,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>463</v>
+        <v>2266</v>
       </c>
       <c r="D28" s="7">
-        <v>471934</v>
+        <v>2303361</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>607</v>
+        <v>2363</v>
       </c>
       <c r="I28" s="7">
-        <v>641005</v>
+        <v>2440667</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1070</v>
+        <v>4629</v>
       </c>
       <c r="N28" s="7">
-        <v>1112939</v>
+        <v>4744028</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,49 +3776,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2746</v>
+        <v>943</v>
       </c>
       <c r="D29" s="7">
-        <v>2798542</v>
+        <v>967115</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>2687</v>
+        <v>931</v>
       </c>
       <c r="I29" s="7">
-        <v>2735067</v>
+        <v>935405</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>5433</v>
+        <v>1874</v>
       </c>
       <c r="N29" s="7">
-        <v>5533609</v>
+        <v>1902520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3874,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3790,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76023DC-66BB-4CA6-81E4-0C6375D163C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE728F-9D83-4E1D-A9EB-8D930D701DCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,7 +3915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,39 +4020,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,39 +4065,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,39 +4110,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,49 +4153,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>98672</v>
+        <v>283858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="I7" s="7">
-        <v>99926</v>
+        <v>305803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
-        <v>183</v>
+        <v>543</v>
       </c>
       <c r="N7" s="7">
-        <v>198598</v>
+        <v>589661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,49 +4204,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>378</v>
+        <v>207</v>
       </c>
       <c r="D8" s="7">
-        <v>403881</v>
+        <v>218695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="I8" s="7">
-        <v>422644</v>
+        <v>216767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
-        <v>765</v>
+        <v>405</v>
       </c>
       <c r="N8" s="7">
-        <v>826525</v>
+        <v>435462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,49 +4308,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="D10" s="7">
-        <v>32579</v>
+        <v>214624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="I10" s="7">
-        <v>40328</v>
+        <v>258187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>449</v>
       </c>
       <c r="N10" s="7">
-        <v>72907</v>
+        <v>472811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,49 +4359,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>290440</v>
+        <v>108395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>297527</v>
+        <v>79668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
-        <v>564</v>
+        <v>183</v>
       </c>
       <c r="N11" s="7">
-        <v>587967</v>
+        <v>188063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,49 +4463,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>92</v>
+        <v>402</v>
       </c>
       <c r="D13" s="7">
-        <v>97800</v>
+        <v>424660</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>446</v>
       </c>
       <c r="I13" s="7">
-        <v>146752</v>
+        <v>484038</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
+        <v>848</v>
+      </c>
+      <c r="N13" s="7">
+        <v>908699</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="N13" s="7">
-        <v>244552</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,49 +4514,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>519</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>555558</v>
+        <v>228698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
-        <v>482</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>517580</v>
+        <v>180294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>1001</v>
+        <v>380</v>
       </c>
       <c r="N14" s="7">
-        <v>1073139</v>
+        <v>408992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,49 +4618,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>27987</v>
+        <v>122452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>46073</v>
+        <v>162425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="N16" s="7">
-        <v>74060</v>
+        <v>284877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,49 +4669,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>183616</v>
+        <v>89151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>172625</v>
+        <v>56273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="N17" s="7">
-        <v>356242</v>
+        <v>145425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,55 +4767,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D19" s="7">
-        <v>35231</v>
+        <v>175398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>43092</v>
+        <v>216306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>78322</v>
+        <v>391703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,49 +4824,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>233552</v>
+        <v>93385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="I20" s="7">
-        <v>233810</v>
+        <v>60596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>449</v>
+        <v>148</v>
       </c>
       <c r="N20" s="7">
-        <v>467363</v>
+        <v>153982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,55 +4922,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="D22" s="7">
-        <v>91811</v>
+        <v>404679</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="I22" s="7">
-        <v>89547</v>
+        <v>487815</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
-        <v>161</v>
+        <v>817</v>
       </c>
       <c r="N22" s="7">
-        <v>181359</v>
+        <v>892495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,49 +4979,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>526</v>
+        <v>237</v>
       </c>
       <c r="D23" s="7">
-        <v>562115</v>
+        <v>249247</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
-        <v>548</v>
+        <v>181</v>
       </c>
       <c r="I23" s="7">
-        <v>592389</v>
+        <v>194121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>1074</v>
+        <v>418</v>
       </c>
       <c r="N23" s="7">
-        <v>1154504</v>
+        <v>443368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,55 +5077,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>149</v>
+        <v>646</v>
       </c>
       <c r="D25" s="7">
-        <v>165325</v>
+        <v>706458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="I25" s="7">
-        <v>154891</v>
+        <v>737813</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
-        <v>289</v>
+        <v>1326</v>
       </c>
       <c r="N25" s="7">
-        <v>320216</v>
+        <v>1444271</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +5134,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>562</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>607783</v>
+        <v>66650</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
-        <v>614</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>665719</v>
+        <v>82797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
-        <v>1176</v>
+        <v>139</v>
       </c>
       <c r="N26" s="7">
-        <v>1273503</v>
+        <v>149447</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,7 +5218,7 @@
         <v>1465</v>
       </c>
       <c r="N27" s="7">
-        <v>1593719</v>
+        <v>1593718</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5130,49 +5238,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>505</v>
+        <v>2172</v>
       </c>
       <c r="D28" s="7">
-        <v>549405</v>
+        <v>2332130</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
-        <v>566</v>
+        <v>2453</v>
       </c>
       <c r="I28" s="7">
-        <v>620610</v>
+        <v>2652388</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
-        <v>1071</v>
+        <v>4625</v>
       </c>
       <c r="N28" s="7">
-        <v>1170015</v>
+        <v>4984518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5289,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2664</v>
+        <v>997</v>
       </c>
       <c r="D29" s="7">
-        <v>2836947</v>
+        <v>1054222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
-        <v>2701</v>
+        <v>814</v>
       </c>
       <c r="I29" s="7">
-        <v>2902294</v>
+        <v>870516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
-        <v>5365</v>
+        <v>1811</v>
       </c>
       <c r="N29" s="7">
-        <v>5739239</v>
+        <v>1924737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,7 +5373,7 @@
         <v>6436</v>
       </c>
       <c r="N30" s="7">
-        <v>6909254</v>
+        <v>6909255</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5279,7 +5387,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138B0C98-856B-4D2C-A1D3-218CEF059C68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCEDF07-31B6-42E2-98A5-7D6FC933C91E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,49 +5529,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="D4" s="7">
-        <v>51778</v>
+        <v>242185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="I4" s="7">
-        <v>61479</v>
+        <v>241503</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="N4" s="7">
-        <v>113257</v>
+        <v>483688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,49 +5580,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>234098</v>
+        <v>43691</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>219900</v>
+        <v>39876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>453998</v>
+        <v>83567</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,49 +5684,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="D7" s="7">
-        <v>79197</v>
+        <v>414732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="I7" s="7">
-        <v>87387</v>
+        <v>428617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
-        <v>155</v>
+        <v>784</v>
       </c>
       <c r="N7" s="7">
-        <v>166584</v>
+        <v>843349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,49 +5735,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>418176</v>
+        <v>82641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
-        <v>401</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7">
-        <v>430272</v>
+        <v>89042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
-        <v>794</v>
+        <v>165</v>
       </c>
       <c r="N8" s="7">
-        <v>848447</v>
+        <v>171682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,49 +5839,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="D10" s="7">
-        <v>63471</v>
+        <v>248849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>69790</v>
+        <v>276002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
-        <v>136</v>
+        <v>535</v>
       </c>
       <c r="N10" s="7">
-        <v>133261</v>
+        <v>524851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,49 +5890,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>253188</v>
+        <v>67810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="I11" s="7">
-        <v>263076</v>
+        <v>56864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
-        <v>526</v>
+        <v>127</v>
       </c>
       <c r="N11" s="7">
-        <v>516264</v>
+        <v>124674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,49 +5994,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="D13" s="7">
-        <v>38045</v>
+        <v>175143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>46648</v>
+        <v>224118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="N13" s="7">
-        <v>84693</v>
+        <v>399260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,49 +6045,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>329894</v>
+        <v>192797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
-        <v>314</v>
+        <v>153</v>
       </c>
       <c r="I14" s="7">
-        <v>337650</v>
+        <v>160180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
-        <v>631</v>
+        <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>667544</v>
+        <v>352977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6099,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367939</v>
+        <v>367940</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6041,49 +6149,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D16" s="7">
-        <v>26829</v>
+        <v>191605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>23362</v>
+        <v>200368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="N16" s="7">
-        <v>50190</v>
+        <v>391973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,49 +6200,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>183326</v>
+        <v>18550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>195225</v>
+        <v>18219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>378552</v>
+        <v>36769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,55 +6298,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="D19" s="7">
-        <v>45734</v>
+        <v>209441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="I19" s="7">
-        <v>72789</v>
+        <v>221120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="N19" s="7">
-        <v>118523</v>
+        <v>430561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,49 +6355,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>217389</v>
+        <v>53682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7">
-        <v>198387</v>
+        <v>50056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="N20" s="7">
-        <v>415776</v>
+        <v>103738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,55 +6453,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>123</v>
+        <v>491</v>
       </c>
       <c r="D22" s="7">
-        <v>141879</v>
+        <v>554947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
-        <v>139</v>
+        <v>561</v>
       </c>
       <c r="I22" s="7">
-        <v>153009</v>
+        <v>602152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
-        <v>262</v>
+        <v>1052</v>
       </c>
       <c r="N22" s="7">
-        <v>294888</v>
+        <v>1157099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,49 +6510,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7">
-        <v>510051</v>
+        <v>96983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
-        <v>497</v>
+        <v>75</v>
       </c>
       <c r="I23" s="7">
-        <v>526987</v>
+        <v>77844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
-        <v>950</v>
+        <v>160</v>
       </c>
       <c r="N23" s="7">
-        <v>1037038</v>
+        <v>174827</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,55 +6608,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>105</v>
+        <v>696</v>
       </c>
       <c r="D25" s="7">
-        <v>106629</v>
+        <v>721697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>438</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
-        <v>108</v>
+        <v>713</v>
       </c>
       <c r="I25" s="7">
-        <v>122213</v>
+        <v>781120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
-        <v>213</v>
+        <v>1409</v>
       </c>
       <c r="N25" s="7">
-        <v>228842</v>
+        <v>1502818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,49 +6665,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>642</v>
+        <v>51</v>
       </c>
       <c r="D26" s="7">
-        <v>668307</v>
+        <v>53239</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>24</v>
       </c>
       <c r="H26" s="7">
-        <v>644</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>700591</v>
+        <v>41684</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
-        <v>1286</v>
+        <v>90</v>
       </c>
       <c r="N26" s="7">
-        <v>1368898</v>
+        <v>94922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,49 +6769,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>528</v>
+        <v>2626</v>
       </c>
       <c r="D28" s="7">
-        <v>553561</v>
+        <v>2758599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
-        <v>581</v>
+        <v>2788</v>
       </c>
       <c r="I28" s="7">
-        <v>636678</v>
+        <v>2975000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
-        <v>1109</v>
+        <v>5414</v>
       </c>
       <c r="N28" s="7">
-        <v>1190238</v>
+        <v>5733599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>344</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,49 +6820,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2680</v>
+        <v>582</v>
       </c>
       <c r="D29" s="7">
-        <v>2814431</v>
+        <v>609393</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
-        <v>2724</v>
+        <v>517</v>
       </c>
       <c r="I29" s="7">
-        <v>2872086</v>
+        <v>533764</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
-        <v>5404</v>
+        <v>1099</v>
       </c>
       <c r="N29" s="7">
-        <v>5686518</v>
+        <v>1143157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6834,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7CB4A-FCDE-40BD-A86D-BA68FF4926AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329A470-0A77-4EE4-AC25-26ED4DDE9AF5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6952,49 +7060,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="D4" s="7">
-        <v>9479</v>
+        <v>137940</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="I4" s="7">
-        <v>13312</v>
+        <v>161419</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="N4" s="7">
-        <v>22791</v>
+        <v>299359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,49 +7111,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>246688</v>
+        <v>118227</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
-        <v>504</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>254907</v>
+        <v>106800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
-        <v>814</v>
+        <v>342</v>
       </c>
       <c r="N5" s="7">
-        <v>501595</v>
+        <v>225027</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,49 +7215,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="D7" s="7">
-        <v>61201</v>
+        <v>327271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
-        <v>90</v>
+        <v>424</v>
       </c>
       <c r="I7" s="7">
-        <v>65377</v>
+        <v>318282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
-        <v>141</v>
+        <v>665</v>
       </c>
       <c r="N7" s="7">
-        <v>126578</v>
+        <v>645553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,49 +7266,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>453519</v>
+        <v>187449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
-        <v>622</v>
+        <v>288</v>
       </c>
       <c r="I8" s="7">
-        <v>485842</v>
+        <v>232937</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
-        <v>948</v>
+        <v>424</v>
       </c>
       <c r="N8" s="7">
-        <v>939361</v>
+        <v>420386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,49 +7370,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="D10" s="7">
-        <v>29083</v>
+        <v>147699</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>233</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="I10" s="7">
-        <v>41635</v>
+        <v>186398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>395</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="N10" s="7">
-        <v>70718</v>
+        <v>334097</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,49 +7421,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>272899</v>
+        <v>154283</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="H11" s="7">
-        <v>413</v>
+        <v>201</v>
       </c>
       <c r="I11" s="7">
-        <v>296443</v>
+        <v>151680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>509</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
-        <v>710</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>569342</v>
+        <v>305963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,49 +7525,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>30505</v>
+        <v>109553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>43618</v>
+        <v>145369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="N13" s="7">
-        <v>74123</v>
+        <v>254922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,49 +7576,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7">
-        <v>287391</v>
+        <v>208343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
-        <v>504</v>
+        <v>345</v>
       </c>
       <c r="I14" s="7">
-        <v>372530</v>
+        <v>270779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
-        <v>756</v>
+        <v>528</v>
       </c>
       <c r="N14" s="7">
-        <v>659921</v>
+        <v>479122</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,49 +7680,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="D16" s="7">
-        <v>25596</v>
+        <v>181991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
-        <v>64</v>
+        <v>459</v>
       </c>
       <c r="I16" s="7">
-        <v>27039</v>
+        <v>213527</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="M16" s="7">
-        <v>105</v>
+        <v>720</v>
       </c>
       <c r="N16" s="7">
-        <v>52635</v>
+        <v>395518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,49 +7731,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>170396</v>
+        <v>14001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="H17" s="7">
-        <v>427</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>204457</v>
+        <v>17969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="M17" s="7">
-        <v>664</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>374853</v>
+        <v>31970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,55 +7829,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="D19" s="7">
-        <v>36553</v>
+        <v>112768</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="I19" s="7">
-        <v>38005</v>
+        <v>112742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
-        <v>146</v>
+        <v>415</v>
       </c>
       <c r="N19" s="7">
-        <v>74558</v>
+        <v>225510</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,49 +7886,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="D20" s="7">
-        <v>239637</v>
+        <v>163422</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="I20" s="7">
-        <v>237190</v>
+        <v>162453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
-        <v>682</v>
+        <v>413</v>
       </c>
       <c r="N20" s="7">
-        <v>476827</v>
+        <v>325875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,55 +7984,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="D22" s="7">
-        <v>70111</v>
+        <v>404955</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
-        <v>108</v>
+        <v>643</v>
       </c>
       <c r="I22" s="7">
-        <v>74203</v>
+        <v>446929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
-        <v>187</v>
+        <v>1048</v>
       </c>
       <c r="N22" s="7">
-        <v>144314</v>
+        <v>851885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,49 +8041,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>510</v>
+        <v>184</v>
       </c>
       <c r="D23" s="7">
-        <v>546300</v>
+        <v>211456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
-        <v>834</v>
+        <v>299</v>
       </c>
       <c r="I23" s="7">
-        <v>604919</v>
+        <v>232193</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
-        <v>1344</v>
+        <v>483</v>
       </c>
       <c r="N23" s="7">
-        <v>1151220</v>
+        <v>443649</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,55 +8139,55 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>183</v>
+        <v>665</v>
       </c>
       <c r="D25" s="7">
-        <v>172326</v>
+        <v>688302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
-        <v>306</v>
+        <v>941</v>
       </c>
       <c r="I25" s="7">
-        <v>220717</v>
+        <v>762900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>17</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
-        <v>489</v>
+        <v>1606</v>
       </c>
       <c r="N25" s="7">
-        <v>393044</v>
+        <v>1451202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,49 +8196,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>576</v>
+        <v>94</v>
       </c>
       <c r="D26" s="7">
-        <v>682876</v>
+        <v>166900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
-        <v>752</v>
+        <v>117</v>
       </c>
       <c r="I26" s="7">
-        <v>645024</v>
+        <v>102841</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
-        <v>1328</v>
+        <v>211</v>
       </c>
       <c r="N26" s="7">
-        <v>1327899</v>
+        <v>269741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,49 +8300,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>504</v>
+        <v>2220</v>
       </c>
       <c r="D28" s="7">
-        <v>434854</v>
+        <v>2110480</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
-        <v>824</v>
+        <v>3545</v>
       </c>
       <c r="I28" s="7">
-        <v>523907</v>
+        <v>2347567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>627</v>
       </c>
       <c r="M28" s="7">
-        <v>1328</v>
+        <v>5765</v>
       </c>
       <c r="N28" s="7">
-        <v>958761</v>
+        <v>4458047</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>628</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,49 +8351,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2816</v>
+        <v>1100</v>
       </c>
       <c r="D29" s="7">
-        <v>2899706</v>
+        <v>1224080</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="H29" s="7">
-        <v>4430</v>
+        <v>1709</v>
       </c>
       <c r="I29" s="7">
-        <v>3101311</v>
+        <v>1277651</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>101</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>49</v>
       </c>
       <c r="M29" s="7">
-        <v>7246</v>
+        <v>2809</v>
       </c>
       <c r="N29" s="7">
-        <v>6001017</v>
+        <v>2501731</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>382</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8449,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DF3DD7-B071-447B-9EF1-947D0105156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45BFF528-95DF-4D89-98E6-592E062E3500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E4EB19-A304-45AC-9B52-4AA48644CC3D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9029A751-B03E-43FE-A91F-C179B515A212}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="648">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -593,7 +593,52 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>56,48%</t>
@@ -698,58 +743,46 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
   </si>
   <si>
     <t>57,87%</t>
@@ -1490,472 +1523,466 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>38,64%</t>
   </si>
   <si>
     <t>34,19%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBB00A-5C49-4D2F-B88B-DE3D738BC99B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2573C972-81D5-44C4-B387-F7917A0DE380}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3743,7 +3770,7 @@
         <v>2363</v>
       </c>
       <c r="I28" s="7">
-        <v>2440667</v>
+        <v>2440666</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3845,7 +3872,7 @@
         <v>3294</v>
       </c>
       <c r="I30" s="7">
-        <v>3376072</v>
+        <v>3376071</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3898,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE728F-9D83-4E1D-A9EB-8D930D701DCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0C238F-F136-4A34-AEC9-79481484E3F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,43 +4043,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="D4" s="7">
+        <v>224440</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="I4" s="7">
+        <v>238617</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>430</v>
+      </c>
+      <c r="N4" s="7">
+        <v>463057</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,43 +4094,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="7">
+        <v>58214</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <v>38746</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="N5" s="7">
+        <v>96960</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,43 +4145,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="D6" s="7">
+        <v>282654</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="I6" s="7">
+        <v>277363</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>518</v>
+      </c>
+      <c r="N6" s="7">
+        <v>560017</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4204,13 @@
         <v>283858</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>281</v>
@@ -4174,13 +4219,13 @@
         <v>305803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -4189,13 +4234,13 @@
         <v>589661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4255,13 @@
         <v>218695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
@@ -4225,13 +4270,13 @@
         <v>216767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>405</v>
@@ -4240,13 +4285,13 @@
         <v>435462</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4359,13 @@
         <v>214624</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -4329,13 +4374,13 @@
         <v>258187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>449</v>
@@ -4344,13 +4389,13 @@
         <v>472811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4410,13 @@
         <v>108395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>76</v>
@@ -4380,13 +4425,13 @@
         <v>79668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>183</v>
@@ -4395,13 +4440,13 @@
         <v>188063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4508,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="D13" s="7">
-        <v>424660</v>
+        <v>200220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>446</v>
+        <v>234</v>
       </c>
       <c r="I13" s="7">
-        <v>484038</v>
+        <v>245421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>848</v>
+        <v>418</v>
       </c>
       <c r="N13" s="7">
-        <v>908699</v>
+        <v>445642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +4559,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>228698</v>
+        <v>170484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>180294</v>
+        <v>141548</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="N14" s="7">
-        <v>408992</v>
+        <v>312031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4610,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>611</v>
+        <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>653358</v>
+        <v>370704</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4625,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>617</v>
+        <v>369</v>
       </c>
       <c r="I15" s="7">
-        <v>664332</v>
+        <v>386969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4640,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1228</v>
+        <v>710</v>
       </c>
       <c r="N15" s="7">
-        <v>1317691</v>
+        <v>757673</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4624,13 +4669,13 @@
         <v>122452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -4639,13 +4684,13 @@
         <v>162425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -4654,13 +4699,13 @@
         <v>284877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4720,13 @@
         <v>89151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -4690,13 +4735,13 @@
         <v>56273</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -4705,13 +4750,13 @@
         <v>145425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4824,13 @@
         <v>175398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -4794,13 +4839,13 @@
         <v>216306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>374</v>
@@ -4809,13 +4854,13 @@
         <v>391703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4875,13 @@
         <v>93385</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -4845,13 +4890,13 @@
         <v>60596</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4860,13 +4905,13 @@
         <v>153982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,28 +4979,28 @@
         <v>404679</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>445</v>
       </c>
       <c r="I22" s="7">
-        <v>487815</v>
+        <v>487816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>817</v>
@@ -4964,13 +5009,13 @@
         <v>892495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5030,13 @@
         <v>249247</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H23" s="7">
         <v>181</v>
@@ -5000,10 +5045,10 @@
         <v>194121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>122</v>
@@ -5015,13 +5060,13 @@
         <v>443368</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5093,7 @@
         <v>626</v>
       </c>
       <c r="I24" s="7">
-        <v>681936</v>
+        <v>681937</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5089,13 +5134,13 @@
         <v>706458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>680</v>
@@ -5104,28 +5149,28 @@
         <v>737813</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
       </c>
       <c r="N25" s="7">
-        <v>1444271</v>
+        <v>1444272</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5185,13 @@
         <v>66650</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -5155,13 +5200,13 @@
         <v>82797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -5170,13 +5215,13 @@
         <v>149447</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,7 +5263,7 @@
         <v>1465</v>
       </c>
       <c r="N27" s="7">
-        <v>1593718</v>
+        <v>1593719</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -5244,28 +5289,28 @@
         <v>2332130</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>2453</v>
       </c>
       <c r="I28" s="7">
-        <v>2652388</v>
+        <v>2652387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>4625</v>
@@ -5274,13 +5319,13 @@
         <v>4984518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5340,13 @@
         <v>1054222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>814</v>
@@ -5310,13 +5355,13 @@
         <v>870516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>1811</v>
@@ -5325,13 +5370,13 @@
         <v>1924737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,7 +5403,7 @@
         <v>3267</v>
       </c>
       <c r="I30" s="7">
-        <v>3522904</v>
+        <v>3522903</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5411,7 +5456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCEDF07-31B6-42E2-98A5-7D6FC933C91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E530512-5662-4CF3-95FD-A096E090310F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5428,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,13 +5580,13 @@
         <v>242185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>233</v>
@@ -5550,13 +5595,13 @@
         <v>241503</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>453</v>
@@ -5565,13 +5610,13 @@
         <v>483688</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5631,13 @@
         <v>43691</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -5601,13 +5646,13 @@
         <v>39876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -5616,13 +5661,13 @@
         <v>83567</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5735,13 @@
         <v>414732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>392</v>
@@ -5705,13 +5750,13 @@
         <v>428617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>784</v>
@@ -5720,13 +5765,13 @@
         <v>843349</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5786,13 @@
         <v>82641</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>87</v>
@@ -5756,13 +5801,13 @@
         <v>89042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>165</v>
@@ -5771,13 +5816,13 @@
         <v>171682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5890,13 @@
         <v>248849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -5860,13 +5905,13 @@
         <v>276002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>535</v>
@@ -5875,13 +5920,13 @@
         <v>524851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5941,13 @@
         <v>67810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5911,13 +5956,13 @@
         <v>56864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>127</v>
@@ -5926,13 +5971,13 @@
         <v>124674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,16 +6042,16 @@
         <v>165</v>
       </c>
       <c r="D13" s="7">
-        <v>175143</v>
+        <v>175142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -6015,13 +6060,13 @@
         <v>224118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>367</v>
@@ -6030,13 +6075,13 @@
         <v>399260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6096,13 @@
         <v>192797</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -6066,13 +6111,13 @@
         <v>160180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -6081,13 +6126,13 @@
         <v>352977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,7 +6144,7 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>367940</v>
+        <v>367939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6155,13 +6200,13 @@
         <v>191605</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -6170,13 +6215,13 @@
         <v>200368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>397</v>
@@ -6185,13 +6230,13 @@
         <v>391973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6251,13 @@
         <v>18550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -6221,13 +6266,13 @@
         <v>18219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -6236,13 +6281,13 @@
         <v>36769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6355,13 @@
         <v>209441</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -6325,13 +6370,13 @@
         <v>221120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -6340,13 +6385,13 @@
         <v>430561</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6406,13 @@
         <v>53682</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -6376,13 +6421,13 @@
         <v>50056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>103</v>
@@ -6391,13 +6436,13 @@
         <v>103738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6510,13 @@
         <v>554947</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>561</v>
@@ -6480,13 +6525,13 @@
         <v>602152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>1052</v>
@@ -6495,13 +6540,13 @@
         <v>1157099</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6561,13 @@
         <v>96983</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>75</v>
@@ -6531,13 +6576,13 @@
         <v>77844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -6546,13 +6591,13 @@
         <v>174827</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6665,13 @@
         <v>721697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>713</v>
@@ -6635,13 +6680,13 @@
         <v>781120</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M25" s="7">
         <v>1409</v>
@@ -6650,13 +6695,13 @@
         <v>1502818</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,10 +6716,10 @@
         <v>53239</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -6686,13 +6731,13 @@
         <v>41684</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -6701,13 +6746,13 @@
         <v>94922</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6820,13 @@
         <v>2758599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>2788</v>
@@ -6790,13 +6835,13 @@
         <v>2975000</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="M28" s="7">
         <v>5414</v>
@@ -6805,13 +6850,13 @@
         <v>5733599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6871,13 @@
         <v>609393</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -6841,13 +6886,13 @@
         <v>533764</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M29" s="7">
         <v>1099</v>
@@ -6856,13 +6901,13 @@
         <v>1143157</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,7 +6987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329A470-0A77-4EE4-AC25-26ED4DDE9AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F69B37-2545-43B6-86AB-E2C0D0B10C5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6959,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7063,46 +7108,46 @@
         <v>186</v>
       </c>
       <c r="D4" s="7">
-        <v>137940</v>
+        <v>163669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
       </c>
       <c r="I4" s="7">
-        <v>161419</v>
+        <v>172655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="M4" s="7">
         <v>514</v>
       </c>
       <c r="N4" s="7">
-        <v>299359</v>
+        <v>336324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,46 +7159,46 @@
         <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>118227</v>
+        <v>143169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>106800</v>
+        <v>113731</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>342</v>
       </c>
       <c r="N5" s="7">
-        <v>225027</v>
+        <v>256900</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,7 +7210,7 @@
         <v>326</v>
       </c>
       <c r="D6" s="7">
-        <v>256167</v>
+        <v>306838</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7180,7 +7225,7 @@
         <v>530</v>
       </c>
       <c r="I6" s="7">
-        <v>268219</v>
+        <v>286386</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7195,7 +7240,7 @@
         <v>856</v>
       </c>
       <c r="N6" s="7">
-        <v>524386</v>
+        <v>593224</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7218,46 +7263,46 @@
         <v>241</v>
       </c>
       <c r="D7" s="7">
-        <v>327271</v>
+        <v>325567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="H7" s="7">
         <v>424</v>
       </c>
       <c r="I7" s="7">
-        <v>318282</v>
+        <v>295479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="M7" s="7">
         <v>665</v>
       </c>
       <c r="N7" s="7">
-        <v>645553</v>
+        <v>621046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,46 +7314,46 @@
         <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>187449</v>
+        <v>188370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="H8" s="7">
         <v>288</v>
       </c>
       <c r="I8" s="7">
-        <v>232937</v>
+        <v>216438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="M8" s="7">
         <v>424</v>
       </c>
       <c r="N8" s="7">
-        <v>420386</v>
+        <v>404808</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7365,7 @@
         <v>377</v>
       </c>
       <c r="D9" s="7">
-        <v>514720</v>
+        <v>513937</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7335,7 +7380,7 @@
         <v>712</v>
       </c>
       <c r="I9" s="7">
-        <v>551219</v>
+        <v>511917</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7350,7 +7395,7 @@
         <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>1065939</v>
+        <v>1025854</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7373,46 +7418,46 @@
         <v>177</v>
       </c>
       <c r="D10" s="7">
-        <v>147699</v>
+        <v>143821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
       </c>
       <c r="I10" s="7">
-        <v>186398</v>
+        <v>173868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>460</v>
       </c>
       <c r="N10" s="7">
-        <v>334097</v>
+        <v>317689</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,46 +7469,46 @@
         <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>154283</v>
+        <v>152958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H11" s="7">
         <v>201</v>
       </c>
       <c r="I11" s="7">
-        <v>151680</v>
+        <v>142093</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="M11" s="7">
         <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>305963</v>
+        <v>295051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>532</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,7 +7520,7 @@
         <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>301982</v>
+        <v>296779</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7490,7 +7535,7 @@
         <v>484</v>
       </c>
       <c r="I12" s="7">
-        <v>338078</v>
+        <v>315961</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7505,7 +7550,7 @@
         <v>819</v>
       </c>
       <c r="N12" s="7">
-        <v>640060</v>
+        <v>612740</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7528,46 +7573,46 @@
         <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>109553</v>
+        <v>104296</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>233</v>
       </c>
       <c r="I13" s="7">
-        <v>145369</v>
+        <v>134707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>337</v>
       </c>
       <c r="N13" s="7">
-        <v>254922</v>
+        <v>239003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +7624,46 @@
         <v>183</v>
       </c>
       <c r="D14" s="7">
-        <v>208343</v>
+        <v>204118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>544</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>345</v>
       </c>
       <c r="I14" s="7">
-        <v>270779</v>
+        <v>329475</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>528</v>
       </c>
       <c r="N14" s="7">
-        <v>479122</v>
+        <v>533593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7675,7 @@
         <v>287</v>
       </c>
       <c r="D15" s="7">
-        <v>317896</v>
+        <v>308414</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7645,7 +7690,7 @@
         <v>578</v>
       </c>
       <c r="I15" s="7">
-        <v>416148</v>
+        <v>464182</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7660,7 +7705,7 @@
         <v>865</v>
       </c>
       <c r="N15" s="7">
-        <v>734044</v>
+        <v>772596</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7683,46 +7728,46 @@
         <v>261</v>
       </c>
       <c r="D16" s="7">
-        <v>181991</v>
+        <v>165395</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>459</v>
       </c>
       <c r="I16" s="7">
-        <v>213527</v>
+        <v>192391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>720</v>
       </c>
       <c r="N16" s="7">
-        <v>395518</v>
+        <v>357786</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,46 +7779,46 @@
         <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>14001</v>
+        <v>12663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>564</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>17969</v>
+        <v>15883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>31970</v>
+        <v>28546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,7 +7830,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>195992</v>
+        <v>178058</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7800,7 +7845,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7815,7 +7860,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427488</v>
+        <v>386332</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7838,46 +7883,46 @@
         <v>181</v>
       </c>
       <c r="D19" s="7">
-        <v>112768</v>
+        <v>108964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>234</v>
       </c>
       <c r="I19" s="7">
-        <v>112742</v>
+        <v>105239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="M19" s="7">
         <v>415</v>
       </c>
       <c r="N19" s="7">
-        <v>225510</v>
+        <v>214203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,46 +7934,46 @@
         <v>188</v>
       </c>
       <c r="D20" s="7">
-        <v>163422</v>
+        <v>159686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
       </c>
       <c r="I20" s="7">
-        <v>162453</v>
+        <v>151424</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>413</v>
       </c>
       <c r="N20" s="7">
-        <v>325875</v>
+        <v>311110</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +7985,7 @@
         <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>276190</v>
+        <v>268650</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7955,7 +8000,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>275195</v>
+        <v>256663</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7970,7 +8015,7 @@
         <v>828</v>
       </c>
       <c r="N21" s="7">
-        <v>551385</v>
+        <v>525313</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7993,46 +8038,46 @@
         <v>405</v>
       </c>
       <c r="D22" s="7">
-        <v>404955</v>
+        <v>401914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>643</v>
       </c>
       <c r="I22" s="7">
-        <v>446929</v>
+        <v>415313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
         <v>1048</v>
       </c>
       <c r="N22" s="7">
-        <v>851885</v>
+        <v>817228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,46 +8089,46 @@
         <v>184</v>
       </c>
       <c r="D23" s="7">
-        <v>211456</v>
+        <v>211281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
         <v>299</v>
       </c>
       <c r="I23" s="7">
-        <v>232193</v>
+        <v>215802</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
         <v>483</v>
       </c>
       <c r="N23" s="7">
-        <v>443649</v>
+        <v>427082</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,7 +8140,7 @@
         <v>589</v>
       </c>
       <c r="D24" s="7">
-        <v>616411</v>
+        <v>613195</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8110,7 +8155,7 @@
         <v>942</v>
       </c>
       <c r="I24" s="7">
-        <v>679122</v>
+        <v>631115</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8125,7 +8170,7 @@
         <v>1531</v>
       </c>
       <c r="N24" s="7">
-        <v>1295534</v>
+        <v>1244310</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8148,46 +8193,46 @@
         <v>665</v>
       </c>
       <c r="D25" s="7">
-        <v>688302</v>
+        <v>582845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>941</v>
       </c>
       <c r="I25" s="7">
-        <v>762900</v>
+        <v>630412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>1606</v>
       </c>
       <c r="N25" s="7">
-        <v>1451202</v>
+        <v>1213257</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,46 +8244,46 @@
         <v>94</v>
       </c>
       <c r="D26" s="7">
-        <v>166900</v>
+        <v>342303</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>622</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H26" s="7">
         <v>117</v>
       </c>
       <c r="I26" s="7">
-        <v>102841</v>
+        <v>85048</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>211</v>
       </c>
       <c r="N26" s="7">
-        <v>269741</v>
+        <v>427351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8295,7 @@
         <v>759</v>
       </c>
       <c r="D27" s="7">
-        <v>855202</v>
+        <v>925148</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8265,7 +8310,7 @@
         <v>1058</v>
       </c>
       <c r="I27" s="7">
-        <v>865741</v>
+        <v>715460</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8280,7 +8325,7 @@
         <v>1817</v>
       </c>
       <c r="N27" s="7">
-        <v>1720943</v>
+        <v>1640608</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8303,46 +8348,46 @@
         <v>2220</v>
       </c>
       <c r="D28" s="7">
-        <v>2110480</v>
+        <v>1996471</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="H28" s="7">
         <v>3545</v>
       </c>
       <c r="I28" s="7">
-        <v>2347567</v>
+        <v>2120065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>634</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M28" s="7">
         <v>5765</v>
       </c>
       <c r="N28" s="7">
-        <v>4458047</v>
+        <v>4116536</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,46 +8399,46 @@
         <v>1100</v>
       </c>
       <c r="D29" s="7">
-        <v>1224080</v>
+        <v>1414547</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H29" s="7">
         <v>1709</v>
       </c>
       <c r="I29" s="7">
-        <v>1277651</v>
+        <v>1269893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>49</v>
+        <v>644</v>
       </c>
       <c r="M29" s="7">
         <v>2809</v>
       </c>
       <c r="N29" s="7">
-        <v>2501731</v>
+        <v>2684441</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,7 +8450,7 @@
         <v>3320</v>
       </c>
       <c r="D30" s="7">
-        <v>3334560</v>
+        <v>3411018</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8420,7 +8465,7 @@
         <v>5254</v>
       </c>
       <c r="I30" s="7">
-        <v>3625218</v>
+        <v>3389958</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8435,7 +8480,7 @@
         <v>8574</v>
       </c>
       <c r="N30" s="7">
-        <v>6959778</v>
+        <v>6800977</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
